--- a/medicine/Mort/Cimetière_juif_de_Grötzingen/Cimetière_juif_de_Grötzingen.xlsx
+++ b/medicine/Mort/Cimetière_juif_de_Grötzingen/Cimetière_juif_de_Grötzingen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Gr%C3%B6tzingen</t>
+          <t>Cimetière_juif_de_Grötzingen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière juif de Grötzingen (en allemand : jüdischer Friedhof Grötzingen ou Judengottesacker Grötzingen[1]) est le plus petit cimetière juif de la ville de Karlsruhe[1],[2], dans le Land de Bade-Wurtemberg en Allemagne. Il est protégé au titre de monument culturel[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière juif de Grötzingen (en allemand : jüdischer Friedhof Grötzingen ou Judengottesacker Grötzingen) est le plus petit cimetière juif de la ville de Karlsruhe dans le Land de Bade-Wurtemberg en Allemagne. Il est protégé au titre de monument culturel.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Gr%C3%B6tzingen</t>
+          <t>Cimetière_juif_de_Grötzingen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 1900, les morts de la communauté juive de Grötzingen sont inhumés au cimetière juif d'Obergrombach (de)[1],[2], au Nord-Est de Karlsruhe. Le cimetière juif de Grötzingen est construit en 1905–1906 sur l'openfield Junghälden[1] sur la Werrabronner Straße. Il est aujourd'hui entouré de constructions modernes[1].
-Il s'étend sur 1,08 ares et compte treize sépultures[1], dont la plus ancienne date de 1905[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 1900, les morts de la communauté juive de Grötzingen sont inhumés au cimetière juif d'Obergrombach (de) au Nord-Est de Karlsruhe. Le cimetière juif de Grötzingen est construit en 1905–1906 sur l'openfield Junghälden sur la Werrabronner Straße. Il est aujourd'hui entouré de constructions modernes.
+Il s'étend sur 1,08 ares et compte treize sépultures, dont la plus ancienne date de 1905.
 L'ensemble du cimetière est recouvert de dalles.
 </t>
         </is>
